--- a/tcp_simulation_metrics.xlsx
+++ b/tcp_simulation_metrics.xlsx
@@ -467,10 +467,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.020408163265306</v>
+        <v>1.024943310657596</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03061224489795918</v>
+        <v>0.036281179138322</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -489,10 +489,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.8902439024390244</v>
+        <v>0.9933333333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0274390243902439</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -501,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>5.84</v>
+        <v>5.96</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -511,10 +511,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8324661810613944</v>
+        <v>0.8560311284046692</v>
       </c>
       <c r="B4" t="n">
-        <v>0.009365244536940686</v>
+        <v>0.02075226977950713</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -523,7 +523,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>16</v>
+        <v>13.2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
